--- a/history/45_55/summary.xlsx
+++ b/history/45_55/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel.rostov\PycharmProjects\scrapyBotTrade\history\45_55\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE9971B-B7EC-4EEA-B840-51AB92E03516}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE68F54-8497-424D-B873-F41A576B1B83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="0" windowWidth="27000" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="2205" windowWidth="27000" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -119,6 +120,9 @@
   <si>
     <t>in</t>
   </si>
+  <si>
+    <t>`</t>
+  </si>
 </sst>
 </file>
 
@@ -506,6 +510,65 @@
         <row r="6">
           <cell r="H6">
             <v>6</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="H1">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>44273</v>
+          </cell>
+          <cell r="E2">
+            <v>53</v>
+          </cell>
+          <cell r="H2">
+            <v>5</v>
+          </cell>
+          <cell r="L2">
+            <v>2734.1900000000005</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="H3">
+            <v>10</v>
+          </cell>
+          <cell r="L3">
+            <v>2787.7594164839838</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4">
+            <v>7</v>
+          </cell>
+          <cell r="L4">
+            <v>1.9215939570404905E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6">
+            <v>5</v>
           </cell>
         </row>
       </sheetData>
@@ -777,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T4"/>
+  <dimension ref="B2:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="Y9" sqref="Y7:Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,10 +852,11 @@
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="21" t="s">
         <v>11</v>
       </c>
@@ -808,7 +872,7 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
     </row>
-    <row r="3" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -855,7 +919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>[1]Sheet1!$B$2</f>
         <v>44272</v>
@@ -931,6 +995,87 @@
       <c r="T4" s="10">
         <f t="shared" ref="T4" si="6">(D4+F4+H4+J4)/C4</f>
         <v>0.8</v>
+      </c>
+      <c r="V4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <f>[2]Sheet1!$B$2</f>
+        <v>44273</v>
+      </c>
+      <c r="C5" s="3">
+        <f>[2]Sheet1!$E$2</f>
+        <v>53</v>
+      </c>
+      <c r="D5" s="11">
+        <f>[2]Sheet1!$H$1</f>
+        <v>20</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" ref="E5" si="7">D5/C5</f>
+        <v>0.37735849056603776</v>
+      </c>
+      <c r="F5" s="12">
+        <f>[2]Sheet1!$H$2</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" ref="G5" si="8">F5/C5</f>
+        <v>9.4339622641509441E-2</v>
+      </c>
+      <c r="H5" s="12">
+        <f>[2]Sheet1!$H$3</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" ref="I5" si="9">H5/C5</f>
+        <v>0.18867924528301888</v>
+      </c>
+      <c r="J5" s="12">
+        <f>[2]Sheet1!$H$4</f>
+        <v>7</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" ref="K5" si="10">J5/C5</f>
+        <v>0.13207547169811321</v>
+      </c>
+      <c r="L5" s="7">
+        <f>[2]Sheet1!$H$5</f>
+        <v>6</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" ref="M5" si="11">L5/C5</f>
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="N5" s="7">
+        <f>[2]Sheet1!$H$6</f>
+        <v>5</v>
+      </c>
+      <c r="O5" s="5">
+        <f>N5/C5</f>
+        <v>9.4339622641509441E-2</v>
+      </c>
+      <c r="P5" s="2">
+        <f>[2]Sheet1!$L$2</f>
+        <v>2734.1900000000005</v>
+      </c>
+      <c r="Q5" s="15">
+        <f>[2]Sheet1!$L$3</f>
+        <v>2787.7594164839838</v>
+      </c>
+      <c r="R5" s="9">
+        <f>[2]Sheet1!$L$4</f>
+        <v>1.9215939570404905E-2</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" ref="S5" si="12">(D5+F5+H5)/C5</f>
+        <v>0.660377358490566</v>
+      </c>
+      <c r="T5" s="10">
+        <f t="shared" ref="T5" si="13">(D5+F5+H5+J5)/C5</f>
+        <v>0.79245283018867929</v>
       </c>
     </row>
   </sheetData>
